--- a/medicine/Mort/Cimetière_fortifié_de_Hartmannswiller/Cimetière_fortifié_de_Hartmannswiller.xlsx
+++ b/medicine/Mort/Cimetière_fortifié_de_Hartmannswiller/Cimetière_fortifié_de_Hartmannswiller.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_fortifi%C3%A9_de_Hartmannswiller</t>
+          <t>Cimetière_fortifié_de_Hartmannswiller</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière fortifié de Hartmannswiller est un monument historique situé à Hartmannswiller, dans le département français du Haut-Rhin.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_fortifi%C3%A9_de_Hartmannswiller</t>
+          <t>Cimetière_fortifié_de_Hartmannswiller</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Localisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ces constructions sont situées à Hartmannswiller.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_fortifi%C3%A9_de_Hartmannswiller</t>
+          <t>Cimetière_fortifié_de_Hartmannswiller</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,9 +556,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'édifice fait l'objet d'un classement au titre des monuments historiques depuis 1920[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'édifice fait l'objet d'un classement au titre des monuments historiques depuis 1920.
 </t>
         </is>
       </c>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_fortifi%C3%A9_de_Hartmannswiller</t>
+          <t>Cimetière_fortifié_de_Hartmannswiller</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,6 +590,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
